--- a/spreadsheets/Swap Leg Schedule/SwapLegSchedule.xlsx
+++ b/spreadsheets/Swap Leg Schedule/SwapLegSchedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\finmath-spreadsheets\spreadsheets\Swap Leg Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\finmath-spreadsheets\spreadsheets\Swap Leg Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -561,10 +561,10 @@
     <definedNames>
       <definedName name="OBADDALLJARS"/>
       <definedName name="OBADDCLASSES"/>
-      <definedName name="obCall"/>
-      <definedName name="obControlPanelSetVisible"/>
-      <definedName name="obGet"/>
-      <definedName name="obMake"/>
+      <definedName name="OBCALL"/>
+      <definedName name="OBCONTROLPANELSETVISIBLE"/>
+      <definedName name="OBGET"/>
+      <definedName name="OBMAKE"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -912,7 +912,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="b">
-        <f>[1]!obControlPanelSetVisible(C8)</f>
+        <f>[1]!OBCONTROLPANELSETVISIBLE(C8)</f>
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -925,7 +925,7 @@
       </c>
       <c r="F12" s="1" t="str">
         <f>[1]!OBADDALLJARS(F8,F9)</f>
-        <v>\\vmware-host\Shared Folders\finmath-spreadsheets\spreadsheets\Swap Leg Schedule\lib</v>
+        <v>Z:\finmath-spreadsheets\spreadsheets\Swap Leg Schedule\lib</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
       </c>
       <c r="F21" s="1" t="str">
         <f>[1]!OBADDCLASSES(F17,F18)</f>
-        <v>\\vmware-host\Shared Folders\finmath-spreadsheets\spreadsheets\Swap Leg Schedule\</v>
+        <v>Z:\finmath-spreadsheets\spreadsheets\Swap Leg Schedule\</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1004,9 +1004,9 @@
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="str">
-        <f>[1]!obGet([1]!obCall("","net.finmath.information.Library","getVersionString"))</f>
-        <v>4.0.6-SNAPSHOT</v>
+      <c r="C24" s="1" t="e">
+        <f>[1]!OBGET([1]!OBCALL("","net.finmath.information.Library","getVersionString"))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1125,23 +1125,23 @@
         <v>0</v>
       </c>
       <c r="F6" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E6)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E6)),"get"&amp;F$5))</f>
         <v>42480</v>
       </c>
       <c r="G6" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E6)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E6)),"get"&amp;G$5))</f>
         <v>42573</v>
       </c>
       <c r="H6" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E6)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E6)),"get"&amp;H$5))</f>
         <v>42480</v>
       </c>
       <c r="I6" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E6)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E6)),"get"&amp;I$5))</f>
         <v>42571</v>
       </c>
       <c r="J6" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E6)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E6)))</f>
         <v>0.25277777777777777</v>
       </c>
     </row>
@@ -1150,23 +1150,23 @@
         <v>1</v>
       </c>
       <c r="F7" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E7)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E7)),"get"&amp;F$5))</f>
         <v>42571</v>
       </c>
       <c r="G7" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E7)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E7)),"get"&amp;G$5))</f>
         <v>42667</v>
       </c>
       <c r="H7" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E7)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E7)),"get"&amp;H$5))</f>
         <v>42571</v>
       </c>
       <c r="I7" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E7)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E7)),"get"&amp;I$5))</f>
         <v>42663</v>
       </c>
       <c r="J7" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E7)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E7)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
@@ -1179,31 +1179,31 @@
         <v>2</v>
       </c>
       <c r="F8" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E8)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E8)),"get"&amp;F$5))</f>
         <v>42663</v>
       </c>
       <c r="G8" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E8)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E8)),"get"&amp;G$5))</f>
         <v>42759</v>
       </c>
       <c r="H8" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E8)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E8)),"get"&amp;H$5))</f>
         <v>42663</v>
       </c>
       <c r="I8" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E8)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E8)),"get"&amp;I$5))</f>
         <v>42755</v>
       </c>
       <c r="J8" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E8)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E8)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
     <row r="9" spans="1:1024" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="str">
-        <f>[1]!obMake("referenceDate","LocalDate",C9)</f>
+        <f>[1]!OBMAKE("referenceDate","LocalDate",C9)</f>
         <v>referenceDate 
-[1391]</v>
+[4453]</v>
       </c>
       <c r="C9" s="34">
         <v>42478</v>
@@ -1212,31 +1212,31 @@
         <v>3</v>
       </c>
       <c r="F9" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E9)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E9)),"get"&amp;F$5))</f>
         <v>42755</v>
       </c>
       <c r="G9" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E9)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E9)),"get"&amp;G$5))</f>
         <v>42849</v>
       </c>
       <c r="H9" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E9)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E9)),"get"&amp;H$5))</f>
         <v>42755</v>
       </c>
       <c r="I9" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E9)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E9)),"get"&amp;I$5))</f>
         <v>42845</v>
       </c>
       <c r="J9" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E9)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E9)))</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:1024" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="str">
-        <f>[1]!obMake("spotOffice (bus.days)","int",C10)</f>
+        <f>[1]!OBMAKE("spotOffice (bus.days)","int",C10)</f>
         <v>spotOffice (bus.days) 
-[1553]</v>
+[4180]</v>
       </c>
       <c r="C10" s="35">
         <v>2</v>
@@ -1245,31 +1245,31 @@
         <v>4</v>
       </c>
       <c r="F10" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E10)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E10)),"get"&amp;F$5))</f>
         <v>42845</v>
       </c>
       <c r="G10" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E10)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E10)),"get"&amp;G$5))</f>
         <v>42940</v>
       </c>
       <c r="H10" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E10)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E10)),"get"&amp;H$5))</f>
         <v>42845</v>
       </c>
       <c r="I10" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E10)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E10)),"get"&amp;I$5))</f>
         <v>42936</v>
       </c>
       <c r="J10" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E10)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E10)))</f>
         <v>0.25277777777777777</v>
       </c>
     </row>
     <row r="11" spans="1:1024" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="str">
-        <f>[1]!obMake("startOffset","String",C11)</f>
+        <f>[1]!OBMAKE("startOffset","String",C11)</f>
         <v>startOffset 
-[1388]</v>
+[4393]</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>29</v>
@@ -1278,31 +1278,31 @@
         <v>5</v>
       </c>
       <c r="F11" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E11)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E11)),"get"&amp;F$5))</f>
         <v>42936</v>
       </c>
       <c r="G11" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E11)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E11)),"get"&amp;G$5))</f>
         <v>43032</v>
       </c>
       <c r="H11" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E11)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E11)),"get"&amp;H$5))</f>
         <v>42936</v>
       </c>
       <c r="I11" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E11)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E11)),"get"&amp;I$5))</f>
         <v>43028</v>
       </c>
       <c r="J11" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E11)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E11)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
     <row r="12" spans="1:1024" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="str">
-        <f>[1]!obMake("maturity","String",C12)</f>
+        <f>[1]!OBMAKE("maturity","String",C12)</f>
         <v>maturity 
-[1550]</v>
+[4633]</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>30</v>
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="F12" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E12)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E12)),"get"&amp;F$5))</f>
         <v>43028</v>
       </c>
       <c r="G12" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E12)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E12)),"get"&amp;G$5))</f>
         <v>43123</v>
       </c>
       <c r="H12" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E12)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E12)),"get"&amp;H$5))</f>
         <v>43028</v>
       </c>
       <c r="I12" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E12)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E12)),"get"&amp;I$5))</f>
         <v>43120</v>
       </c>
       <c r="J12" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E12)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E12)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
     <row r="13" spans="1:1024" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="str">
-        <f>[1]!obMake("frequency","String",C13)</f>
+        <f>[1]!OBMAKE("frequency","String",C13)</f>
         <v>frequency 
-[1385]</v>
+[4304]</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>31</v>
@@ -1344,31 +1344,31 @@
         <v>7</v>
       </c>
       <c r="F13" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E13)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E13)),"get"&amp;F$5))</f>
         <v>43120</v>
       </c>
       <c r="G13" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E13)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E13)),"get"&amp;G$5))</f>
         <v>43214</v>
       </c>
       <c r="H13" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E13)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E13)),"get"&amp;H$5))</f>
         <v>43120</v>
       </c>
       <c r="I13" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E13)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E13)),"get"&amp;I$5))</f>
         <v>43210</v>
       </c>
       <c r="J13" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E13)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E13)))</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:1024" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="str">
-        <f>[1]!obMake("daycountConvention","String",C14)</f>
+        <f>[1]!OBMAKE("daycountConvention","String",C14)</f>
         <v>daycountConvention 
-[1547]</v>
+[4394]</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>32</v>
@@ -1377,31 +1377,31 @@
         <v>8</v>
       </c>
       <c r="F14" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E14)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E14)),"get"&amp;F$5))</f>
         <v>43210</v>
       </c>
       <c r="G14" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E14)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E14)),"get"&amp;G$5))</f>
         <v>43305</v>
       </c>
       <c r="H14" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E14)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E14)),"get"&amp;H$5))</f>
         <v>43210</v>
       </c>
       <c r="I14" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E14)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E14)),"get"&amp;I$5))</f>
         <v>43301</v>
       </c>
       <c r="J14" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E14)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E14)))</f>
         <v>0.25277777777777777</v>
       </c>
     </row>
     <row r="15" spans="1:1024" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="str">
-        <f>[1]!obMake("shortPeriodConvention","String",C15)</f>
+        <f>[1]!OBMAKE("shortPeriodConvention","String",C15)</f>
         <v>shortPeriodConvention 
-[1382]</v>
+[4178]</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>33</v>
@@ -1410,31 +1410,31 @@
         <v>9</v>
       </c>
       <c r="F15" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E15)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E15)),"get"&amp;F$5))</f>
         <v>43301</v>
       </c>
       <c r="G15" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E15)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E15)),"get"&amp;G$5))</f>
         <v>43396</v>
       </c>
       <c r="H15" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E15)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E15)),"get"&amp;H$5))</f>
         <v>43301</v>
       </c>
       <c r="I15" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E15)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E15)),"get"&amp;I$5))</f>
         <v>43393</v>
       </c>
       <c r="J15" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E15)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E15)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
     <row r="16" spans="1:1024" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="str">
-        <f>[1]!obMake("dateRollConvention","String",C16)</f>
+        <f>[1]!OBMAKE("dateRollConvention","String",C16)</f>
         <v>dateRollConvention 
-[1544]</v>
+[4305]</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>34</v>
@@ -1443,31 +1443,31 @@
         <v>10</v>
       </c>
       <c r="F16" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E16)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E16)),"get"&amp;F$5))</f>
         <v>43393</v>
       </c>
       <c r="G16" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E16)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E16)),"get"&amp;G$5))</f>
         <v>43487</v>
       </c>
       <c r="H16" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E16)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E16)),"get"&amp;H$5))</f>
         <v>43393</v>
       </c>
       <c r="I16" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E16)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E16)),"get"&amp;I$5))</f>
         <v>43485</v>
       </c>
       <c r="J16" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E16)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E16)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="str">
-        <f>[1]!obMake("businessDayCal",obLibs&amp;"net.finmath.time.businessdaycalendar."&amp;C17)</f>
+        <f>[1]!OBMAKE("businessDayCal",obLibs&amp;"net.finmath.time.businessdaycalendar."&amp;C17)</f>
         <v>businessDayCal 
-[1379]</v>
+[5499]</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>35</v>
@@ -1476,31 +1476,31 @@
         <v>11</v>
       </c>
       <c r="F17" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E17)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E17)),"get"&amp;F$5))</f>
         <v>43485</v>
       </c>
       <c r="G17" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E17)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E17)),"get"&amp;G$5))</f>
         <v>43579</v>
       </c>
       <c r="H17" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E17)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E17)),"get"&amp;H$5))</f>
         <v>43485</v>
       </c>
       <c r="I17" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E17)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E17)),"get"&amp;I$5))</f>
         <v>43575</v>
       </c>
       <c r="J17" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E17)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E17)))</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="str">
-        <f>[1]!obMake("fixingOffset","int",C18)</f>
+        <f>[1]!OBMAKE("fixingOffset","int",C18)</f>
         <v>fixingOffset 
-[1541]</v>
+[4179]</v>
       </c>
       <c r="C18" s="35">
         <v>0</v>
@@ -1509,31 +1509,31 @@
         <v>12</v>
       </c>
       <c r="F18" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E18)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E18)),"get"&amp;F$5))</f>
         <v>43575</v>
       </c>
       <c r="G18" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E18)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E18)),"get"&amp;G$5))</f>
         <v>43669</v>
       </c>
       <c r="H18" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E18)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E18)),"get"&amp;H$5))</f>
         <v>43575</v>
       </c>
       <c r="I18" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E18)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E18)),"get"&amp;I$5))</f>
         <v>43666</v>
       </c>
       <c r="J18" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E18)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E18)))</f>
         <v>0.25277777777777777</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="str">
-        <f>[1]!obMake("paymentOffset","int",C19)</f>
+        <f>[1]!OBMAKE("paymentOffset","int",C19)</f>
         <v>paymentOffset 
-[1376]</v>
+[4392]</v>
       </c>
       <c r="C19" s="35">
         <v>2</v>
@@ -1542,31 +1542,31 @@
         <v>13</v>
       </c>
       <c r="F19" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E19)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E19)),"get"&amp;F$5))</f>
         <v>43666</v>
       </c>
       <c r="G19" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E19)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E19)),"get"&amp;G$5))</f>
         <v>43760</v>
       </c>
       <c r="H19" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E19)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E19)),"get"&amp;H$5))</f>
         <v>43666</v>
       </c>
       <c r="I19" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E19)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E19)),"get"&amp;I$5))</f>
         <v>43758</v>
       </c>
       <c r="J19" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E19)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E19)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
-        <f>[1]!obMake("isUseEndOfMonth","boolean",C20)</f>
+        <f>[1]!OBMAKE("isUseEndOfMonth","boolean",C20)</f>
         <v>isUseEndOfMonth 
-[1538]</v>
+[4567]</v>
       </c>
       <c r="C20" s="38" t="b">
         <v>1</v>
@@ -1575,23 +1575,23 @@
         <v>14</v>
       </c>
       <c r="F20" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E20)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E20)),"get"&amp;F$5))</f>
         <v>43758</v>
       </c>
       <c r="G20" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E20)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E20)),"get"&amp;G$5))</f>
         <v>43852</v>
       </c>
       <c r="H20" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E20)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E20)),"get"&amp;H$5))</f>
         <v>43758</v>
       </c>
       <c r="I20" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E20)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E20)),"get"&amp;I$5))</f>
         <v>43850</v>
       </c>
       <c r="J20" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E20)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E20)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
@@ -1600,23 +1600,23 @@
         <v>15</v>
       </c>
       <c r="F21" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E21)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E21)),"get"&amp;F$5))</f>
         <v>43850</v>
       </c>
       <c r="G21" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E21)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E21)),"get"&amp;G$5))</f>
         <v>43943</v>
       </c>
       <c r="H21" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E21)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E21)),"get"&amp;H$5))</f>
         <v>43850</v>
       </c>
       <c r="I21" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E21)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E21)),"get"&amp;I$5))</f>
         <v>43941</v>
       </c>
       <c r="J21" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E21)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E21)))</f>
         <v>0.25277777777777777</v>
       </c>
     </row>
@@ -1629,53 +1629,53 @@
         <v>16</v>
       </c>
       <c r="F22" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E22)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E22)),"get"&amp;F$5))</f>
         <v>43941</v>
       </c>
       <c r="G22" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E22)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E22)),"get"&amp;G$5))</f>
         <v>44034</v>
       </c>
       <c r="H22" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E22)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E22)),"get"&amp;H$5))</f>
         <v>43941</v>
       </c>
       <c r="I22" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E22)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E22)),"get"&amp;I$5))</f>
         <v>44032</v>
       </c>
       <c r="J22" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E22)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E22)))</f>
         <v>0.25277777777777777</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
-        <f>[1]!obCall("Schedule",obLibs&amp;"net.finmath.time.ScheduleGenerator","createScheduleFromConventions",B9:B20)</f>
+        <f>[1]!OBCALL("Schedule",obLibs&amp;"net.finmath.time.ScheduleGenerator","createScheduleFromConventions",B9:B20)</f>
         <v>Schedule 
-[1554]</v>
+[5500]</v>
       </c>
       <c r="E23" s="28">
         <v>17</v>
       </c>
       <c r="F23" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E23)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E23)),"get"&amp;F$5))</f>
         <v>44032</v>
       </c>
       <c r="G23" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E23)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E23)),"get"&amp;G$5))</f>
         <v>44126</v>
       </c>
       <c r="H23" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E23)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E23)),"get"&amp;H$5))</f>
         <v>44032</v>
       </c>
       <c r="I23" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E23)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E23)),"get"&amp;I$5))</f>
         <v>44124</v>
       </c>
       <c r="J23" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E23)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E23)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
@@ -1684,23 +1684,23 @@
         <v>18</v>
       </c>
       <c r="F24" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E24)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E24)),"get"&amp;F$5))</f>
         <v>44124</v>
       </c>
       <c r="G24" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E24)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E24)),"get"&amp;G$5))</f>
         <v>44218</v>
       </c>
       <c r="H24" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E24)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E24)),"get"&amp;H$5))</f>
         <v>44124</v>
       </c>
       <c r="I24" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E24)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E24)),"get"&amp;I$5))</f>
         <v>44216</v>
       </c>
       <c r="J24" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E24)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E24)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
@@ -1709,23 +1709,23 @@
         <v>19</v>
       </c>
       <c r="F25" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E25)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E25)),"get"&amp;F$5))</f>
         <v>44216</v>
       </c>
       <c r="G25" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E25)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E25)),"get"&amp;G$5))</f>
         <v>44308</v>
       </c>
       <c r="H25" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E25)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E25)),"get"&amp;H$5))</f>
         <v>44216</v>
       </c>
       <c r="I25" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E25)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E25)),"get"&amp;I$5))</f>
         <v>44306</v>
       </c>
       <c r="J25" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E25)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E25)))</f>
         <v>0.25</v>
       </c>
     </row>
@@ -1734,23 +1734,23 @@
         <v>20</v>
       </c>
       <c r="F26" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E26)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E26)),"get"&amp;F$5))</f>
         <v>44306</v>
       </c>
       <c r="G26" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E26)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E26)),"get"&amp;G$5))</f>
         <v>44399</v>
       </c>
       <c r="H26" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E26)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E26)),"get"&amp;H$5))</f>
         <v>44306</v>
       </c>
       <c r="I26" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E26)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E26)),"get"&amp;I$5))</f>
         <v>44397</v>
       </c>
       <c r="J26" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E26)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E26)))</f>
         <v>0.25277777777777777</v>
       </c>
     </row>
@@ -1759,23 +1759,23 @@
         <v>21</v>
       </c>
       <c r="F27" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E27)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E27)),"get"&amp;F$5))</f>
         <v>44397</v>
       </c>
       <c r="G27" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E27)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E27)),"get"&amp;G$5))</f>
         <v>44491</v>
       </c>
       <c r="H27" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E27)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E27)),"get"&amp;H$5))</f>
         <v>44397</v>
       </c>
       <c r="I27" s="29">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E27)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E27)),"get"&amp;I$5))</f>
         <v>44489</v>
       </c>
       <c r="J27" s="30">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E27)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E27)))</f>
         <v>0.25555555555555554</v>
       </c>
     </row>
@@ -1784,23 +1784,23 @@
         <v>22</v>
       </c>
       <c r="F28" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E28)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E28)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G28" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E28)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E28)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H28" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E28)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E28)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I28" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E28)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E28)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J28" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E28)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E28)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1809,23 +1809,23 @@
         <v>23</v>
       </c>
       <c r="F29" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E29)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E29)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E29)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E29)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H29" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E29)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E29)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I29" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E29)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E29)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E29)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E29)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1834,23 +1834,23 @@
         <v>24</v>
       </c>
       <c r="F30" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E30)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E30)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G30" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E30)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E30)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H30" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E30)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E30)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E30)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E30)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E30)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E30)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1859,23 +1859,23 @@
         <v>25</v>
       </c>
       <c r="F31" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E31)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E31)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G31" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E31)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E31)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E31)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E31)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E31)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E31)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E31)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E31)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1884,23 +1884,23 @@
         <v>26</v>
       </c>
       <c r="F32" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E32)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E32)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G32" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E32)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E32)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H32" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E32)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E32)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E32)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E32)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E32)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E32)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1909,23 +1909,23 @@
         <v>27</v>
       </c>
       <c r="F33" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E33)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E33)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G33" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E33)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E33)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H33" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E33)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E33)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E33)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E33)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E33)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E33)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1934,23 +1934,23 @@
         <v>28</v>
       </c>
       <c r="F34" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E34)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E34)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G34" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E34)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E34)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H34" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E34)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E34)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I34" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E34)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E34)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J34" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E34)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E34)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1959,23 +1959,23 @@
         <v>29</v>
       </c>
       <c r="F35" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E35)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E35)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G35" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E35)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E35)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H35" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E35)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E35)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E35)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E35)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J35" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E35)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E35)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1984,23 +1984,23 @@
         <v>30</v>
       </c>
       <c r="F36" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E36)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E36)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G36" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E36)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E36)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H36" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E36)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E36)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E36)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E36)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J36" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E36)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E36)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2009,23 +2009,23 @@
         <v>31</v>
       </c>
       <c r="F37" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E37)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E37)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G37" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E37)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E37)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H37" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E37)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E37)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E37)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E37)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J37" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E37)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E37)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2034,23 +2034,23 @@
         <v>32</v>
       </c>
       <c r="F38" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E38)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E38)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G38" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E38)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E38)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H38" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E38)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E38)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I38" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E38)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E38)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J38" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E38)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E38)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2059,23 +2059,23 @@
         <v>33</v>
       </c>
       <c r="F39" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E39)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E39)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G39" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E39)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E39)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H39" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E39)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E39)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I39" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E39)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E39)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J39" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E39)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E39)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2084,23 +2084,23 @@
         <v>34</v>
       </c>
       <c r="F40" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E40)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E40)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G40" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E40)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E40)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H40" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E40)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E40)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I40" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E40)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E40)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J40" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E40)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E40)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2109,23 +2109,23 @@
         <v>35</v>
       </c>
       <c r="F41" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E41)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E41)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G41" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E41)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E41)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H41" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E41)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E41)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I41" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E41)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E41)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J41" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E41)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E41)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2134,23 +2134,23 @@
         <v>36</v>
       </c>
       <c r="F42" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E42)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E42)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G42" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E42)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E42)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H42" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E42)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E42)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I42" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E42)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E42)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J42" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E42)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E42)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2159,23 +2159,23 @@
         <v>37</v>
       </c>
       <c r="F43" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E43)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E43)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G43" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E43)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E43)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H43" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E43)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E43)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I43" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E43)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E43)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J43" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E43)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E43)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2184,23 +2184,23 @@
         <v>38</v>
       </c>
       <c r="F44" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E44)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E44)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G44" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E44)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E44)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H44" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E44)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E44)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I44" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E44)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E44)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J44" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E44)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E44)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2209,23 +2209,23 @@
         <v>39</v>
       </c>
       <c r="F45" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E45)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E45)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G45" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E45)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E45)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H45" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E45)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E45)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I45" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E45)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E45)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J45" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E45)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E45)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2234,23 +2234,23 @@
         <v>40</v>
       </c>
       <c r="F46" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E46)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E46)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G46" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E46)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E46)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H46" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E46)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E46)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I46" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E46)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E46)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J46" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E46)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E46)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2259,23 +2259,23 @@
         <v>41</v>
       </c>
       <c r="F47" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E47)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E47)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G47" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E47)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E47)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H47" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E47)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E47)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I47" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E47)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E47)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J47" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E47)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E47)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2284,23 +2284,23 @@
         <v>42</v>
       </c>
       <c r="F48" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E48)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E48)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G48" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E48)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E48)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H48" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E48)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E48)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E48)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E48)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J48" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E48)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E48)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2309,23 +2309,23 @@
         <v>43</v>
       </c>
       <c r="F49" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E49)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E49)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G49" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E49)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E49)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H49" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E49)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E49)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E49)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E49)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J49" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E49)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E49)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2334,23 +2334,23 @@
         <v>44</v>
       </c>
       <c r="F50" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E50)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E50)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G50" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E50)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E50)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H50" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E50)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E50)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E50)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E50)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J50" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E50)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E50)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2359,23 +2359,23 @@
         <v>45</v>
       </c>
       <c r="F51" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E51)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E51)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G51" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E51)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E51)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H51" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E51)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E51)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I51" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E51)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E51)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J51" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E51)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E51)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2384,23 +2384,23 @@
         <v>46</v>
       </c>
       <c r="F52" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E52)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E52)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G52" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E52)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E52)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H52" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E52)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E52)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I52" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E52)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E52)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J52" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E52)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E52)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2409,23 +2409,23 @@
         <v>47</v>
       </c>
       <c r="F53" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E53)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E53)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G53" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E53)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E53)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H53" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E53)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E53)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E53)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E53)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J53" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E53)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E53)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2434,23 +2434,23 @@
         <v>48</v>
       </c>
       <c r="F54" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E54)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E54)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G54" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E54)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E54)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H54" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E54)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E54)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E54)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E54)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J54" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E54)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E54)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2459,23 +2459,23 @@
         <v>49</v>
       </c>
       <c r="F55" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E55)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E55)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G55" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E55)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E55)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H55" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E55)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E55)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E55)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E55)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J55" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E55)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E55)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2484,23 +2484,23 @@
         <v>50</v>
       </c>
       <c r="F56" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E56)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E56)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G56" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E56)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E56)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H56" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E56)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E56)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E56)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E56)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J56" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E56)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E56)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2509,23 +2509,23 @@
         <v>51</v>
       </c>
       <c r="F57" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E57)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E57)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G57" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E57)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E57)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H57" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E57)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E57)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E57)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E57)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J57" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E57)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E57)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2534,23 +2534,23 @@
         <v>52</v>
       </c>
       <c r="F58" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E58)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E58)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G58" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E58)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E58)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H58" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E58)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E58)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E58)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E58)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J58" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E58)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E58)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2559,23 +2559,23 @@
         <v>53</v>
       </c>
       <c r="F59" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E59)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E59)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E59)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E59)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H59" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E59)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E59)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E59)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E59)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J59" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E59)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E59)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2584,23 +2584,23 @@
         <v>54</v>
       </c>
       <c r="F60" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E60)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E60)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E60)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E60)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H60" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E60)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E60)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E60)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E60)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J60" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E60)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E60)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2609,23 +2609,23 @@
         <v>55</v>
       </c>
       <c r="F61" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E61)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E61)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G61" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E61)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E61)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H61" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E61)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E61)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E61)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E61)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J61" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E61)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E61)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2634,23 +2634,23 @@
         <v>56</v>
       </c>
       <c r="F62" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E62)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E62)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G62" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E62)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E62)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H62" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E62)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E62)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E62)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E62)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J62" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E62)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E62)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2659,23 +2659,23 @@
         <v>57</v>
       </c>
       <c r="F63" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E63)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E63)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G63" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E63)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E63)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H63" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E63)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E63)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E63)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E63)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J63" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E63)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E63)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2684,23 +2684,23 @@
         <v>58</v>
       </c>
       <c r="F64" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E64)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E64)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G64" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E64)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E64)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H64" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E64)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E64)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E64)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E64)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J64" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E64)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E64)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2709,23 +2709,23 @@
         <v>59</v>
       </c>
       <c r="F65" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E65)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E65)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G65" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E65)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E65)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H65" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E65)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E65)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E65)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E65)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E65)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E65)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2734,23 +2734,23 @@
         <v>60</v>
       </c>
       <c r="F66" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E66)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E66)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G66" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E66)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E66)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H66" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E66)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E66)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E66)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E66)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E66)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E66)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2759,23 +2759,23 @@
         <v>61</v>
       </c>
       <c r="F67" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E67)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E67)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G67" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E67)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E67)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H67" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E67)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E67)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E67)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E67)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J67" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E67)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E67)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2784,23 +2784,23 @@
         <v>62</v>
       </c>
       <c r="F68" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E68)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E68)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G68" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E68)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E68)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H68" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E68)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E68)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E68)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E68)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J68" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E68)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E68)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2809,23 +2809,23 @@
         <v>63</v>
       </c>
       <c r="F69" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E69)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E69)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G69" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E69)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E69)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H69" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E69)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E69)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E69)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E69)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J69" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E69)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E69)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2834,23 +2834,23 @@
         <v>64</v>
       </c>
       <c r="F70" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E70)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E70)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G70" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E70)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E70)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H70" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E70)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E70)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E70)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E70)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J70" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E70)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E70)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2859,23 +2859,23 @@
         <v>65</v>
       </c>
       <c r="F71" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E71)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E71)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G71" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E71)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E71)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H71" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E71)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E71)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E71)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E71)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J71" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E71)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E71)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2884,23 +2884,23 @@
         <v>66</v>
       </c>
       <c r="F72" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E72)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E72)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G72" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E72)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E72)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H72" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E72)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E72)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E72)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E72)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J72" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E72)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E72)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2909,23 +2909,23 @@
         <v>67</v>
       </c>
       <c r="F73" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E73)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E73)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G73" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E73)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E73)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H73" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E73)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E73)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E73)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E73)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J73" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E73)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E73)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2934,23 +2934,23 @@
         <v>68</v>
       </c>
       <c r="F74" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E74)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E74)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G74" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E74)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E74)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H74" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E74)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E74)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E74)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E74)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J74" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E74)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E74)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2959,23 +2959,23 @@
         <v>69</v>
       </c>
       <c r="F75" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E75)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E75)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G75" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E75)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E75)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H75" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E75)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E75)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E75)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E75)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J75" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E75)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E75)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2984,23 +2984,23 @@
         <v>70</v>
       </c>
       <c r="F76" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E76)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E76)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G76" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E76)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E76)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H76" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E76)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E76)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E76)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E76)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J76" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E76)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E76)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3009,23 +3009,23 @@
         <v>71</v>
       </c>
       <c r="F77" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E77)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E77)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G77" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E77)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E77)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H77" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E77)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E77)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E77)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E77)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J77" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E77)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E77)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3034,23 +3034,23 @@
         <v>72</v>
       </c>
       <c r="F78" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E78)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E78)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G78" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E78)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E78)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H78" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E78)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E78)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E78)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E78)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J78" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E78)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E78)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3059,23 +3059,23 @@
         <v>73</v>
       </c>
       <c r="F79" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E79)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E79)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G79" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E79)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E79)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H79" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E79)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E79)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E79)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E79)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J79" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E79)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E79)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3084,23 +3084,23 @@
         <v>74</v>
       </c>
       <c r="F80" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E80)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E80)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E80)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E80)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E80)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E80)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E80)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E80)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E80)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E80)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3109,23 +3109,23 @@
         <v>75</v>
       </c>
       <c r="F81" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E81)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E81)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G81" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E81)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E81)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H81" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E81)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E81)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E81)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E81)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E81)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E81)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3134,23 +3134,23 @@
         <v>76</v>
       </c>
       <c r="F82" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E82)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E82)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G82" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E82)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E82)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H82" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E82)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E82)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E82)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E82)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J82" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E82)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E82)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3159,23 +3159,23 @@
         <v>77</v>
       </c>
       <c r="F83" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E83)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E83)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G83" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E83)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E83)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H83" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E83)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E83)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E83)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E83)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J83" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E83)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E83)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3184,23 +3184,23 @@
         <v>78</v>
       </c>
       <c r="F84" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E84)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E84)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G84" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E84)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E84)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H84" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E84)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E84)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E84)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E84)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J84" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E84)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E84)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3209,23 +3209,23 @@
         <v>79</v>
       </c>
       <c r="F85" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E85)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E85)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G85" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E85)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E85)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H85" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E85)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E85)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E85)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E85)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J85" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E85)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E85)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3234,23 +3234,23 @@
         <v>80</v>
       </c>
       <c r="F86" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E86)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E86)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G86" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E86)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E86)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H86" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E86)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E86)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E86)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E86)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J86" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E86)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E86)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3259,23 +3259,23 @@
         <v>81</v>
       </c>
       <c r="F87" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E87)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E87)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G87" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E87)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E87)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H87" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E87)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E87)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E87)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E87)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J87" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E87)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E87)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3284,23 +3284,23 @@
         <v>82</v>
       </c>
       <c r="F88" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E88)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E88)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G88" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E88)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E88)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H88" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E88)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E88)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E88)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E88)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J88" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E88)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E88)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3309,23 +3309,23 @@
         <v>83</v>
       </c>
       <c r="F89" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E89)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E89)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G89" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E89)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E89)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H89" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E89)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E89)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E89)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E89)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J89" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E89)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E89)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3334,23 +3334,23 @@
         <v>84</v>
       </c>
       <c r="F90" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E90)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E90)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G90" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E90)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E90)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H90" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E90)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E90)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E90)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E90)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J90" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E90)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E90)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3359,23 +3359,23 @@
         <v>85</v>
       </c>
       <c r="F91" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E91)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E91)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G91" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E91)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E91)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H91" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E91)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E91)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E91)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E91)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J91" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E91)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E91)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3384,23 +3384,23 @@
         <v>86</v>
       </c>
       <c r="F92" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E92)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E92)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G92" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E92)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E92)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H92" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E92)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E92)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E92)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E92)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J92" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E92)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E92)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3409,23 +3409,23 @@
         <v>87</v>
       </c>
       <c r="F93" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E93)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E93)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G93" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E93)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E93)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H93" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E93)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E93)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E93)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E93)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J93" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E93)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E93)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3434,23 +3434,23 @@
         <v>88</v>
       </c>
       <c r="F94" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E94)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E94)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G94" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E94)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E94)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H94" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E94)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E94)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E94)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E94)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J94" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E94)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E94)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3459,23 +3459,23 @@
         <v>89</v>
       </c>
       <c r="F95" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E95)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E95)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G95" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E95)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E95)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H95" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E95)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E95)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E95)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E95)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J95" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E95)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E95)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3484,23 +3484,23 @@
         <v>90</v>
       </c>
       <c r="F96" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E96)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E96)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G96" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E96)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E96)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H96" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E96)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E96)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E96)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E96)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J96" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E96)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E96)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3509,23 +3509,23 @@
         <v>91</v>
       </c>
       <c r="F97" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E97)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E97)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G97" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E97)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E97)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H97" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E97)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E97)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E97)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E97)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J97" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E97)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E97)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3534,23 +3534,23 @@
         <v>92</v>
       </c>
       <c r="F98" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E98)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E98)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G98" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E98)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E98)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H98" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E98)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E98)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E98)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E98)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J98" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E98)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E98)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3559,23 +3559,23 @@
         <v>93</v>
       </c>
       <c r="F99" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E99)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E99)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G99" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E99)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E99)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H99" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E99)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E99)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E99)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E99)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J99" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E99)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E99)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3584,23 +3584,23 @@
         <v>94</v>
       </c>
       <c r="F100" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E100)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E100)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G100" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E100)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E100)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H100" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E100)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E100)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E100)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E100)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J100" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E100)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E100)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3609,23 +3609,23 @@
         <v>95</v>
       </c>
       <c r="F101" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E101)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E101)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G101" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E101)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E101)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H101" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E101)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E101)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E101)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E101)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J101" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E101)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E101)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3634,23 +3634,23 @@
         <v>96</v>
       </c>
       <c r="F102" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E102)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E102)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G102" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E102)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E102)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H102" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E102)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E102)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E102)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E102)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J102" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E102)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E102)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3659,23 +3659,23 @@
         <v>97</v>
       </c>
       <c r="F103" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E103)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E103)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G103" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E103)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E103)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H103" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E103)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E103)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E103)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E103)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J103" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E103)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E103)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3684,23 +3684,23 @@
         <v>98</v>
       </c>
       <c r="F104" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E104)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E104)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G104" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E104)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E104)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H104" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E104)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E104)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E104)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E104)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E104)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E104)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3709,23 +3709,23 @@
         <v>99</v>
       </c>
       <c r="F105" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E105)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E105)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G105" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E105)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E105)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H105" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E105)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E105)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E105)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E105)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E105)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E105)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3734,23 +3734,23 @@
         <v>100</v>
       </c>
       <c r="F106" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E106)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E106)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E106)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E106)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H106" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E106)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E106)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E106)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E106)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E106)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E106)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3759,23 +3759,23 @@
         <v>101</v>
       </c>
       <c r="F107" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E107)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E107)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G107" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E107)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E107)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H107" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E107)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E107)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E107)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E107)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J107" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E107)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E107)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3784,23 +3784,23 @@
         <v>102</v>
       </c>
       <c r="F108" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E108)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E108)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G108" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E108)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E108)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H108" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E108)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E108)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E108)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E108)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J108" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E108)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E108)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3809,23 +3809,23 @@
         <v>103</v>
       </c>
       <c r="F109" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E109)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E109)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G109" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E109)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E109)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H109" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E109)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E109)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E109)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E109)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J109" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E109)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E109)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3834,23 +3834,23 @@
         <v>104</v>
       </c>
       <c r="F110" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E110)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E110)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G110" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E110)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E110)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H110" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E110)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E110)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E110)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E110)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J110" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E110)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E110)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3859,23 +3859,23 @@
         <v>105</v>
       </c>
       <c r="F111" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E111)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E111)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G111" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E111)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E111)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H111" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E111)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E111)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E111)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E111)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J111" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E111)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E111)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3884,23 +3884,23 @@
         <v>106</v>
       </c>
       <c r="F112" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E112)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E112)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G112" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E112)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E112)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H112" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E112)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E112)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E112)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E112)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J112" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E112)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E112)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3909,23 +3909,23 @@
         <v>107</v>
       </c>
       <c r="F113" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E113)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E113)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G113" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E113)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E113)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H113" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E113)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E113)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E113)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E113)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J113" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E113)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E113)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3934,23 +3934,23 @@
         <v>108</v>
       </c>
       <c r="F114" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E114)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E114)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G114" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E114)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E114)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H114" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E114)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E114)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E114)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E114)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J114" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E114)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E114)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3959,23 +3959,23 @@
         <v>109</v>
       </c>
       <c r="F115" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E115)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E115)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G115" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E115)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E115)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H115" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E115)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E115)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E115)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E115)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J115" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E115)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E115)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3984,23 +3984,23 @@
         <v>110</v>
       </c>
       <c r="F116" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E116)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E116)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G116" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E116)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E116)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H116" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E116)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E116)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E116)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E116)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J116" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E116)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E116)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4009,23 +4009,23 @@
         <v>111</v>
       </c>
       <c r="F117" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E117)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E117)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G117" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E117)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E117)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H117" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E117)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E117)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E117)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E117)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J117" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E117)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E117)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4034,23 +4034,23 @@
         <v>112</v>
       </c>
       <c r="F118" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E118)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E118)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G118" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E118)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E118)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H118" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E118)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E118)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E118)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E118)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J118" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E118)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E118)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4059,23 +4059,23 @@
         <v>113</v>
       </c>
       <c r="F119" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E119)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E119)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G119" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E119)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E119)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H119" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E119)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E119)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E119)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E119)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J119" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E119)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E119)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4084,23 +4084,23 @@
         <v>114</v>
       </c>
       <c r="F120" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E120)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E120)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G120" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E120)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E120)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H120" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E120)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E120)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E120)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E120)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J120" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E120)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E120)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4109,23 +4109,23 @@
         <v>115</v>
       </c>
       <c r="F121" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E121)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E121)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G121" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E121)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E121)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H121" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E121)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E121)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E121)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E121)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J121" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E121)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E121)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4134,23 +4134,23 @@
         <v>116</v>
       </c>
       <c r="F122" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E122)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E122)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G122" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E122)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E122)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H122" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E122)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E122)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E122)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E122)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J122" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E122)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E122)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4159,23 +4159,23 @@
         <v>117</v>
       </c>
       <c r="F123" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E123)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E123)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G123" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E123)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E123)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H123" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E123)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E123)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E123)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E123)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J123" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E123)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E123)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4184,23 +4184,23 @@
         <v>118</v>
       </c>
       <c r="F124" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E124)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E124)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G124" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E124)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E124)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H124" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E124)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E124)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E124)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E124)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J124" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E124)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E124)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4209,23 +4209,23 @@
         <v>119</v>
       </c>
       <c r="F125" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E125)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E125)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G125" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E125)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E125)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H125" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E125)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E125)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E125)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E125)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J125" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E125)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E125)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4234,23 +4234,23 @@
         <v>120</v>
       </c>
       <c r="F126" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E126)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E126)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G126" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E126)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E126)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H126" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E126)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E126)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E126)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E126)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J126" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E126)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E126)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4259,23 +4259,23 @@
         <v>121</v>
       </c>
       <c r="F127" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E127)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E127)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G127" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E127)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E127)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H127" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E127)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E127)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I127" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E127)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E127)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J127" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E127)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E127)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4284,23 +4284,23 @@
         <v>122</v>
       </c>
       <c r="F128" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E128)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E128)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G128" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E128)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E128)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H128" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E128)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E128)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I128" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E128)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E128)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J128" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E128)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E128)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4309,23 +4309,23 @@
         <v>123</v>
       </c>
       <c r="F129" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E129)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E129)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G129" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E129)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E129)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H129" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E129)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E129)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I129" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E129)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E129)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J129" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E129)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E129)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4334,23 +4334,23 @@
         <v>124</v>
       </c>
       <c r="F130" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E130)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E130)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G130" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E130)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E130)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H130" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E130)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E130)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I130" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E130)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E130)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J130" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E130)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E130)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4359,23 +4359,23 @@
         <v>125</v>
       </c>
       <c r="F131" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E131)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E131)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G131" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E131)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E131)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H131" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E131)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E131)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I131" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E131)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E131)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J131" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E131)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E131)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4384,23 +4384,23 @@
         <v>126</v>
       </c>
       <c r="F132" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E132)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E132)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G132" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E132)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E132)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H132" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E132)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E132)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I132" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E132)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E132)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J132" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E132)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E132)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4409,23 +4409,23 @@
         <v>127</v>
       </c>
       <c r="F133" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E133)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E133)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G133" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E133)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E133)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H133" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E133)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E133)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I133" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E133)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E133)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J133" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E133)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E133)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4434,23 +4434,23 @@
         <v>128</v>
       </c>
       <c r="F134" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E134)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E134)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G134" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E134)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E134)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H134" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E134)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E134)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I134" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E134)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E134)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J134" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E134)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E134)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4459,23 +4459,23 @@
         <v>129</v>
       </c>
       <c r="F135" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E135)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E135)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G135" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E135)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E135)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H135" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E135)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E135)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I135" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E135)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E135)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J135" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E135)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E135)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4484,23 +4484,23 @@
         <v>130</v>
       </c>
       <c r="F136" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E136)),"get"&amp;F$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E136)),"get"&amp;F$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="G136" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E136)),"get"&amp;G$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E136)),"get"&amp;G$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H136" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E136)),"get"&amp;H$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E136)),"get"&amp;H$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="I136" s="29" t="e">
-        <f>[1]!obGet([1]!obCall("",[1]!obCall("",$B$23,"getPeriod",[1]!obMake("","int",$E136)),"get"&amp;I$5))</f>
+        <f>[1]!OBGET([1]!OBCALL("",[1]!OBCALL("",$B$23,"getPeriod",[1]!OBMAKE("","int",$E136)),"get"&amp;I$5))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J136" s="30" t="e">
-        <f>[1]!obGet([1]!obCall("",$B$23,"getPeriodLength",[1]!obMake("","int",$E136)))</f>
+        <f>[1]!OBGET([1]!OBCALL("",$B$23,"getPeriodLength",[1]!OBMAKE("","int",$E136)))</f>
         <v>#VALUE!</v>
       </c>
     </row>
